--- a/Original_Excel_Files/LD-LZ.xlsx
+++ b/Original_Excel_Files/LD-LZ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BA6D9B-860C-4E5C-8600-F05A6B9E2A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91929A0A-B29F-4276-BDC6-E00FEEA4FBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29205" yWindow="420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>LD622.8 .F45 A3 1971</t>
   </si>
   <si>
-    <t>Ferm</t>
-  </si>
-  <si>
-    <t>Vergilius</t>
-  </si>
-  <si>
     <t>1971 H</t>
   </si>
   <si>
@@ -37,12 +31,6 @@
     <t>LD7501 .N5 F524 1971</t>
   </si>
   <si>
-    <t>Dennison</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
     <t>1970 P</t>
   </si>
   <si>
@@ -52,18 +40,6 @@
     <t>LD760 .L5 1965</t>
   </si>
   <si>
-    <t>Lipset</t>
-  </si>
-  <si>
-    <t>Seymour (Ed)</t>
-  </si>
-  <si>
-    <t>Wolin</t>
-  </si>
-  <si>
-    <t>Sheldon S. (E)</t>
-  </si>
-  <si>
     <t>1965 P</t>
   </si>
   <si>
@@ -73,36 +49,21 @@
     <t>LD3131 .L782 1961</t>
   </si>
   <si>
-    <t>Nelson, David T.</t>
-  </si>
-  <si>
     <t>Luther College 1861-1961</t>
   </si>
   <si>
     <t>LD3131 .L782 J67 1986</t>
   </si>
   <si>
-    <t>Jordahl, Leigh D. and Kaasa, Harris E.</t>
-  </si>
-  <si>
     <t>Stability and Change: Luther College in Its Second Century</t>
   </si>
   <si>
     <t>LD3131.L782 J67 1986</t>
   </si>
   <si>
-    <t>Jordahl, Leigh D. and Harris E. Kaasa</t>
-  </si>
-  <si>
     <t>LF795 .L692953 N4 1960</t>
   </si>
   <si>
-    <t>Neill</t>
-  </si>
-  <si>
-    <t>A.S.</t>
-  </si>
-  <si>
     <t>1960 P</t>
   </si>
   <si>
@@ -112,12 +73,6 @@
     <t>LF795 .L692953 P6 1970</t>
   </si>
   <si>
-    <t>Popenoe</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
     <t>1970 O</t>
   </si>
   <si>
@@ -127,10 +82,16 @@
     <t> LJ239</t>
   </si>
   <si>
-    <t>Will, Rosalyn</t>
-  </si>
-  <si>
     <t>Shopping for a Better World</t>
+  </si>
+  <si>
+    <t>LCC</t>
+  </si>
+  <si>
+    <t>Yr.</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -205,25 +166,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,244 +527,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:H30"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="10">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8">
         <v>1989</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1961</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1986</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1986</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="3">
-        <v>1961</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1986</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3">
-        <v>1986</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H30">
-    <sortCondition ref="A1:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+    <sortCondition ref="A1:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
